--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="9765" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -389,6 +389,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -415,7 +416,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1007,7 +1007,7 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
     <col width="77.5" customWidth="1" min="2" max="2"/>
   </cols>
@@ -1018,7 +1018,7 @@
           <t>BECbIC BAU Employee Compensation by ISIC Code</t>
         </is>
       </c>
-      <c r="C1" s="46" t="n">
+      <c r="C1" s="36" t="n">
         <v>44307</v>
       </c>
     </row>
@@ -1188,19 +1188,19 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1796875" defaultRowHeight="13"/>
   <cols>
     <col width="27.5" customWidth="1" style="6" min="1" max="1"/>
     <col width="2.5" customWidth="1" style="6" min="2" max="2"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="3" max="24"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="3" max="24"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="25" max="25"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="26" max="31"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="26" max="31"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="32" max="34"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="35" max="35"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="35" max="35"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="36" max="36"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="37" max="38"/>
-    <col width="9.1640625" customWidth="1" style="6" min="39" max="42"/>
-    <col width="9.1640625" customWidth="1" style="6" min="43" max="16384"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="37" max="38"/>
+    <col width="9.1796875" customWidth="1" style="6" min="39" max="42"/>
+    <col width="9.1796875" customWidth="1" style="6" min="43" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -1222,204 +1222,204 @@
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="36" t="inlineStr">
+      <c r="A3" s="37" t="inlineStr">
         <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="B3" s="37" t="n"/>
-      <c r="C3" s="41" t="inlineStr">
+      <c r="B3" s="38" t="n"/>
+      <c r="C3" s="42" t="inlineStr">
         <is>
           <t>VAL: Value added</t>
         </is>
       </c>
-      <c r="D3" s="39" t="n"/>
-      <c r="E3" s="39" t="n"/>
-      <c r="F3" s="39" t="n"/>
-      <c r="G3" s="39" t="n"/>
-      <c r="H3" s="39" t="n"/>
-      <c r="I3" s="39" t="n"/>
-      <c r="J3" s="39" t="n"/>
-      <c r="K3" s="39" t="n"/>
-      <c r="L3" s="39" t="n"/>
-      <c r="M3" s="39" t="n"/>
-      <c r="N3" s="39" t="n"/>
-      <c r="O3" s="39" t="n"/>
-      <c r="P3" s="39" t="n"/>
-      <c r="Q3" s="39" t="n"/>
-      <c r="R3" s="39" t="n"/>
-      <c r="S3" s="39" t="n"/>
-      <c r="T3" s="39" t="n"/>
-      <c r="U3" s="39" t="n"/>
-      <c r="V3" s="39" t="n"/>
-      <c r="W3" s="39" t="n"/>
-      <c r="X3" s="39" t="n"/>
-      <c r="Y3" s="39" t="n"/>
-      <c r="Z3" s="39" t="n"/>
-      <c r="AA3" s="39" t="n"/>
-      <c r="AB3" s="39" t="n"/>
-      <c r="AC3" s="39" t="n"/>
-      <c r="AD3" s="39" t="n"/>
-      <c r="AE3" s="39" t="n"/>
-      <c r="AF3" s="39" t="n"/>
-      <c r="AG3" s="39" t="n"/>
-      <c r="AH3" s="39" t="n"/>
-      <c r="AI3" s="39" t="n"/>
-      <c r="AJ3" s="39" t="n"/>
-      <c r="AK3" s="39" t="n"/>
-      <c r="AL3" s="37" t="n"/>
+      <c r="D3" s="40" t="n"/>
+      <c r="E3" s="40" t="n"/>
+      <c r="F3" s="40" t="n"/>
+      <c r="G3" s="40" t="n"/>
+      <c r="H3" s="40" t="n"/>
+      <c r="I3" s="40" t="n"/>
+      <c r="J3" s="40" t="n"/>
+      <c r="K3" s="40" t="n"/>
+      <c r="L3" s="40" t="n"/>
+      <c r="M3" s="40" t="n"/>
+      <c r="N3" s="40" t="n"/>
+      <c r="O3" s="40" t="n"/>
+      <c r="P3" s="40" t="n"/>
+      <c r="Q3" s="40" t="n"/>
+      <c r="R3" s="40" t="n"/>
+      <c r="S3" s="40" t="n"/>
+      <c r="T3" s="40" t="n"/>
+      <c r="U3" s="40" t="n"/>
+      <c r="V3" s="40" t="n"/>
+      <c r="W3" s="40" t="n"/>
+      <c r="X3" s="40" t="n"/>
+      <c r="Y3" s="40" t="n"/>
+      <c r="Z3" s="40" t="n"/>
+      <c r="AA3" s="40" t="n"/>
+      <c r="AB3" s="40" t="n"/>
+      <c r="AC3" s="40" t="n"/>
+      <c r="AD3" s="40" t="n"/>
+      <c r="AE3" s="40" t="n"/>
+      <c r="AF3" s="40" t="n"/>
+      <c r="AG3" s="40" t="n"/>
+      <c r="AH3" s="40" t="n"/>
+      <c r="AI3" s="40" t="n"/>
+      <c r="AJ3" s="40" t="n"/>
+      <c r="AK3" s="40" t="n"/>
+      <c r="AL3" s="38" t="n"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="36" t="inlineStr">
+      <c r="A4" s="37" t="inlineStr">
         <is>
           <t>Country</t>
         </is>
       </c>
-      <c r="B4" s="37" t="n"/>
-      <c r="C4" s="38" t="inlineStr">
+      <c r="B4" s="38" t="n"/>
+      <c r="C4" s="39" t="inlineStr">
         <is>
           <t>USA: United States</t>
         </is>
       </c>
-      <c r="D4" s="39" t="n"/>
-      <c r="E4" s="39" t="n"/>
-      <c r="F4" s="39" t="n"/>
-      <c r="G4" s="39" t="n"/>
-      <c r="H4" s="39" t="n"/>
-      <c r="I4" s="39" t="n"/>
-      <c r="J4" s="39" t="n"/>
-      <c r="K4" s="39" t="n"/>
-      <c r="L4" s="39" t="n"/>
-      <c r="M4" s="39" t="n"/>
-      <c r="N4" s="39" t="n"/>
-      <c r="O4" s="39" t="n"/>
-      <c r="P4" s="39" t="n"/>
-      <c r="Q4" s="39" t="n"/>
-      <c r="R4" s="39" t="n"/>
-      <c r="S4" s="39" t="n"/>
-      <c r="T4" s="39" t="n"/>
-      <c r="U4" s="39" t="n"/>
-      <c r="V4" s="39" t="n"/>
-      <c r="W4" s="39" t="n"/>
-      <c r="X4" s="39" t="n"/>
-      <c r="Y4" s="39" t="n"/>
-      <c r="Z4" s="39" t="n"/>
-      <c r="AA4" s="39" t="n"/>
-      <c r="AB4" s="39" t="n"/>
-      <c r="AC4" s="39" t="n"/>
-      <c r="AD4" s="39" t="n"/>
-      <c r="AE4" s="39" t="n"/>
-      <c r="AF4" s="39" t="n"/>
-      <c r="AG4" s="39" t="n"/>
-      <c r="AH4" s="39" t="n"/>
-      <c r="AI4" s="39" t="n"/>
-      <c r="AJ4" s="39" t="n"/>
-      <c r="AK4" s="39" t="n"/>
-      <c r="AL4" s="37" t="n"/>
+      <c r="D4" s="40" t="n"/>
+      <c r="E4" s="40" t="n"/>
+      <c r="F4" s="40" t="n"/>
+      <c r="G4" s="40" t="n"/>
+      <c r="H4" s="40" t="n"/>
+      <c r="I4" s="40" t="n"/>
+      <c r="J4" s="40" t="n"/>
+      <c r="K4" s="40" t="n"/>
+      <c r="L4" s="40" t="n"/>
+      <c r="M4" s="40" t="n"/>
+      <c r="N4" s="40" t="n"/>
+      <c r="O4" s="40" t="n"/>
+      <c r="P4" s="40" t="n"/>
+      <c r="Q4" s="40" t="n"/>
+      <c r="R4" s="40" t="n"/>
+      <c r="S4" s="40" t="n"/>
+      <c r="T4" s="40" t="n"/>
+      <c r="U4" s="40" t="n"/>
+      <c r="V4" s="40" t="n"/>
+      <c r="W4" s="40" t="n"/>
+      <c r="X4" s="40" t="n"/>
+      <c r="Y4" s="40" t="n"/>
+      <c r="Z4" s="40" t="n"/>
+      <c r="AA4" s="40" t="n"/>
+      <c r="AB4" s="40" t="n"/>
+      <c r="AC4" s="40" t="n"/>
+      <c r="AD4" s="40" t="n"/>
+      <c r="AE4" s="40" t="n"/>
+      <c r="AF4" s="40" t="n"/>
+      <c r="AG4" s="40" t="n"/>
+      <c r="AH4" s="40" t="n"/>
+      <c r="AI4" s="40" t="n"/>
+      <c r="AJ4" s="40" t="n"/>
+      <c r="AK4" s="40" t="n"/>
+      <c r="AL4" s="38" t="n"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="36" t="inlineStr">
+      <c r="A5" s="37" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B5" s="37" t="n"/>
-      <c r="C5" s="38" t="inlineStr">
+      <c r="B5" s="38" t="n"/>
+      <c r="C5" s="39" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="D5" s="39" t="n"/>
-      <c r="E5" s="39" t="n"/>
-      <c r="F5" s="39" t="n"/>
-      <c r="G5" s="39" t="n"/>
-      <c r="H5" s="39" t="n"/>
-      <c r="I5" s="39" t="n"/>
-      <c r="J5" s="39" t="n"/>
-      <c r="K5" s="39" t="n"/>
-      <c r="L5" s="39" t="n"/>
-      <c r="M5" s="39" t="n"/>
-      <c r="N5" s="39" t="n"/>
-      <c r="O5" s="39" t="n"/>
-      <c r="P5" s="39" t="n"/>
-      <c r="Q5" s="39" t="n"/>
-      <c r="R5" s="39" t="n"/>
-      <c r="S5" s="39" t="n"/>
-      <c r="T5" s="39" t="n"/>
-      <c r="U5" s="39" t="n"/>
-      <c r="V5" s="39" t="n"/>
-      <c r="W5" s="39" t="n"/>
-      <c r="X5" s="39" t="n"/>
-      <c r="Y5" s="39" t="n"/>
-      <c r="Z5" s="39" t="n"/>
-      <c r="AA5" s="39" t="n"/>
-      <c r="AB5" s="39" t="n"/>
-      <c r="AC5" s="39" t="n"/>
-      <c r="AD5" s="39" t="n"/>
-      <c r="AE5" s="39" t="n"/>
-      <c r="AF5" s="39" t="n"/>
-      <c r="AG5" s="39" t="n"/>
-      <c r="AH5" s="39" t="n"/>
-      <c r="AI5" s="39" t="n"/>
-      <c r="AJ5" s="39" t="n"/>
-      <c r="AK5" s="39" t="n"/>
-      <c r="AL5" s="37" t="n"/>
+      <c r="D5" s="40" t="n"/>
+      <c r="E5" s="40" t="n"/>
+      <c r="F5" s="40" t="n"/>
+      <c r="G5" s="40" t="n"/>
+      <c r="H5" s="40" t="n"/>
+      <c r="I5" s="40" t="n"/>
+      <c r="J5" s="40" t="n"/>
+      <c r="K5" s="40" t="n"/>
+      <c r="L5" s="40" t="n"/>
+      <c r="M5" s="40" t="n"/>
+      <c r="N5" s="40" t="n"/>
+      <c r="O5" s="40" t="n"/>
+      <c r="P5" s="40" t="n"/>
+      <c r="Q5" s="40" t="n"/>
+      <c r="R5" s="40" t="n"/>
+      <c r="S5" s="40" t="n"/>
+      <c r="T5" s="40" t="n"/>
+      <c r="U5" s="40" t="n"/>
+      <c r="V5" s="40" t="n"/>
+      <c r="W5" s="40" t="n"/>
+      <c r="X5" s="40" t="n"/>
+      <c r="Y5" s="40" t="n"/>
+      <c r="Z5" s="40" t="n"/>
+      <c r="AA5" s="40" t="n"/>
+      <c r="AB5" s="40" t="n"/>
+      <c r="AC5" s="40" t="n"/>
+      <c r="AD5" s="40" t="n"/>
+      <c r="AE5" s="40" t="n"/>
+      <c r="AF5" s="40" t="n"/>
+      <c r="AG5" s="40" t="n"/>
+      <c r="AH5" s="40" t="n"/>
+      <c r="AI5" s="40" t="n"/>
+      <c r="AJ5" s="40" t="n"/>
+      <c r="AK5" s="40" t="n"/>
+      <c r="AL5" s="38" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="36" t="inlineStr">
+      <c r="A6" s="37" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="B6" s="37" t="n"/>
-      <c r="C6" s="38" t="inlineStr">
+      <c r="B6" s="38" t="n"/>
+      <c r="C6" s="39" t="inlineStr">
         <is>
           <t>US Dollar, Millions</t>
         </is>
       </c>
-      <c r="D6" s="39" t="n"/>
-      <c r="E6" s="39" t="n"/>
-      <c r="F6" s="39" t="n"/>
-      <c r="G6" s="39" t="n"/>
-      <c r="H6" s="39" t="n"/>
-      <c r="I6" s="39" t="n"/>
-      <c r="J6" s="39" t="n"/>
-      <c r="K6" s="39" t="n"/>
-      <c r="L6" s="39" t="n"/>
-      <c r="M6" s="39" t="n"/>
-      <c r="N6" s="39" t="n"/>
-      <c r="O6" s="39" t="n"/>
-      <c r="P6" s="39" t="n"/>
-      <c r="Q6" s="39" t="n"/>
-      <c r="R6" s="39" t="n"/>
-      <c r="S6" s="39" t="n"/>
-      <c r="T6" s="39" t="n"/>
-      <c r="U6" s="39" t="n"/>
-      <c r="V6" s="39" t="n"/>
-      <c r="W6" s="39" t="n"/>
-      <c r="X6" s="39" t="n"/>
-      <c r="Y6" s="39" t="n"/>
-      <c r="Z6" s="39" t="n"/>
-      <c r="AA6" s="39" t="n"/>
-      <c r="AB6" s="39" t="n"/>
-      <c r="AC6" s="39" t="n"/>
-      <c r="AD6" s="39" t="n"/>
-      <c r="AE6" s="39" t="n"/>
-      <c r="AF6" s="39" t="n"/>
-      <c r="AG6" s="39" t="n"/>
-      <c r="AH6" s="39" t="n"/>
-      <c r="AI6" s="39" t="n"/>
-      <c r="AJ6" s="39" t="n"/>
-      <c r="AK6" s="39" t="n"/>
-      <c r="AL6" s="37" t="n"/>
+      <c r="D6" s="40" t="n"/>
+      <c r="E6" s="40" t="n"/>
+      <c r="F6" s="40" t="n"/>
+      <c r="G6" s="40" t="n"/>
+      <c r="H6" s="40" t="n"/>
+      <c r="I6" s="40" t="n"/>
+      <c r="J6" s="40" t="n"/>
+      <c r="K6" s="40" t="n"/>
+      <c r="L6" s="40" t="n"/>
+      <c r="M6" s="40" t="n"/>
+      <c r="N6" s="40" t="n"/>
+      <c r="O6" s="40" t="n"/>
+      <c r="P6" s="40" t="n"/>
+      <c r="Q6" s="40" t="n"/>
+      <c r="R6" s="40" t="n"/>
+      <c r="S6" s="40" t="n"/>
+      <c r="T6" s="40" t="n"/>
+      <c r="U6" s="40" t="n"/>
+      <c r="V6" s="40" t="n"/>
+      <c r="W6" s="40" t="n"/>
+      <c r="X6" s="40" t="n"/>
+      <c r="Y6" s="40" t="n"/>
+      <c r="Z6" s="40" t="n"/>
+      <c r="AA6" s="40" t="n"/>
+      <c r="AB6" s="40" t="n"/>
+      <c r="AC6" s="40" t="n"/>
+      <c r="AD6" s="40" t="n"/>
+      <c r="AE6" s="40" t="n"/>
+      <c r="AF6" s="40" t="n"/>
+      <c r="AG6" s="40" t="n"/>
+      <c r="AH6" s="40" t="n"/>
+      <c r="AI6" s="40" t="n"/>
+      <c r="AJ6" s="40" t="n"/>
+      <c r="AK6" s="40" t="n"/>
+      <c r="AL6" s="38" t="n"/>
     </row>
     <row r="7" ht="120" customHeight="1">
-      <c r="A7" s="40" t="inlineStr">
+      <c r="A7" s="41" t="inlineStr">
         <is>
           <t>To: (sector in column)</t>
         </is>
       </c>
-      <c r="B7" s="37" t="n"/>
+      <c r="B7" s="38" t="n"/>
       <c r="C7" s="8" t="inlineStr">
         <is>
           <t>D01T03: Agriculture, forestry and fishing</t>
@@ -2034,11 +2034,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
     <col width="27.5" customWidth="1" min="1" max="1"/>
     <col width="2.5" customWidth="1" min="2" max="2"/>
-    <col width="14.1640625" customWidth="1" min="3" max="14"/>
+    <col width="14.1796875" customWidth="1" min="3" max="14"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -2060,80 +2060,80 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="43" t="inlineStr">
+      <c r="A3" s="44" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B3" s="37" t="n"/>
-      <c r="C3" s="44" t="inlineStr">
+      <c r="B3" s="38" t="n"/>
+      <c r="C3" s="45" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="D3" s="39" t="n"/>
-      <c r="E3" s="39" t="n"/>
-      <c r="F3" s="39" t="n"/>
-      <c r="G3" s="39" t="n"/>
-      <c r="H3" s="39" t="n"/>
-      <c r="I3" s="39" t="n"/>
-      <c r="J3" s="39" t="n"/>
-      <c r="K3" s="39" t="n"/>
-      <c r="L3" s="39" t="n"/>
-      <c r="M3" s="39" t="n"/>
-      <c r="N3" s="37" t="n"/>
+      <c r="D3" s="40" t="n"/>
+      <c r="E3" s="40" t="n"/>
+      <c r="F3" s="40" t="n"/>
+      <c r="G3" s="40" t="n"/>
+      <c r="H3" s="40" t="n"/>
+      <c r="I3" s="40" t="n"/>
+      <c r="J3" s="40" t="n"/>
+      <c r="K3" s="40" t="n"/>
+      <c r="L3" s="40" t="n"/>
+      <c r="M3" s="40" t="n"/>
+      <c r="N3" s="38" t="n"/>
     </row>
     <row r="4" ht="24" customHeight="1">
-      <c r="A4" s="42" t="inlineStr">
+      <c r="A4" s="43" t="inlineStr">
         <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="B4" s="37" t="n"/>
-      <c r="C4" s="45" t="inlineStr">
+      <c r="B4" s="38" t="n"/>
+      <c r="C4" s="46" t="inlineStr">
         <is>
           <t>PROD: Production (gross output), current prices</t>
         </is>
       </c>
-      <c r="D4" s="37" t="n"/>
-      <c r="E4" s="45" t="inlineStr">
+      <c r="D4" s="38" t="n"/>
+      <c r="E4" s="46" t="inlineStr">
         <is>
           <t>VALU: Value added, current prices</t>
         </is>
       </c>
-      <c r="F4" s="37" t="n"/>
-      <c r="G4" s="45" t="inlineStr">
+      <c r="F4" s="38" t="n"/>
+      <c r="G4" s="46" t="inlineStr">
         <is>
           <t>LABR: Labour costs (compensation of employees)</t>
         </is>
       </c>
-      <c r="H4" s="37" t="n"/>
-      <c r="I4" s="45" t="inlineStr">
+      <c r="H4" s="38" t="n"/>
+      <c r="I4" s="46" t="inlineStr">
         <is>
           <t>GOPS: Gross operating surplus and mixed income</t>
         </is>
       </c>
-      <c r="J4" s="37" t="n"/>
-      <c r="K4" s="45" t="inlineStr">
+      <c r="J4" s="38" t="n"/>
+      <c r="K4" s="46" t="inlineStr">
         <is>
           <t>OTXS: Other taxes less subsidies on production</t>
         </is>
       </c>
-      <c r="L4" s="37" t="n"/>
-      <c r="M4" s="45" t="inlineStr">
+      <c r="L4" s="38" t="n"/>
+      <c r="M4" s="46" t="inlineStr">
         <is>
           <t>EMPN: Number of persons engaged (total employment)</t>
         </is>
       </c>
-      <c r="N4" s="37" t="n"/>
+      <c r="N4" s="38" t="n"/>
     </row>
     <row r="5" ht="60" customHeight="1">
-      <c r="A5" s="42" t="inlineStr">
+      <c r="A5" s="43" t="inlineStr">
         <is>
           <t>Industry</t>
         </is>
       </c>
-      <c r="B5" s="37" t="n"/>
+      <c r="B5" s="38" t="n"/>
       <c r="C5" s="19" t="inlineStr">
         <is>
           <t>D20: Chemicals and chemical products [CE]</t>
@@ -3442,10 +3442,10 @@
       <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
-    <col width="24.83203125" customWidth="1" min="1" max="1"/>
-    <col width="10.1640625" customWidth="1" min="2" max="39"/>
+    <col width="24.81640625" customWidth="1" min="1" max="1"/>
+    <col width="10.1796875" customWidth="1" min="2" max="39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="4">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>170763000</v>
+        <v>11639892.14522214</v>
       </c>
       <c r="C2" s="32" t="n">
         <v>0</v>
@@ -3681,91 +3681,91 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>48186000</v>
+        <v>34419941.55823046</v>
       </c>
       <c r="F2" t="n">
-        <v>2408000</v>
+        <v>464440.6003778941</v>
       </c>
       <c r="G2" t="n">
-        <v>638350000</v>
+        <v>320321232.8671938</v>
       </c>
       <c r="H2" t="n">
-        <v>110345000</v>
+        <v>76592591.92933199</v>
       </c>
       <c r="I2" t="n">
-        <v>67607000</v>
+        <v>41481203.39782736</v>
       </c>
       <c r="J2" t="n">
-        <v>631204000</v>
+        <v>343560107.8819572</v>
       </c>
       <c r="K2" t="n">
         <v>52424000</v>
       </c>
       <c r="L2" s="32" t="n">
-        <v>1271503816.254417</v>
+        <v>364487207.7494164</v>
       </c>
       <c r="M2" s="33" t="n">
-        <v>112479183.745583</v>
+        <v>36065938.29739357</v>
       </c>
       <c r="N2" t="n">
-        <v>430502000</v>
+        <v>253736974.9118083</v>
       </c>
       <c r="O2" s="32" t="n">
-        <v>28603408.62745098</v>
+        <v>22047693.16405319</v>
       </c>
       <c r="P2" s="33" t="n">
-        <v>153288591.372549</v>
+        <v>110715740.7032104</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>106083799.4269341</v>
+        <v>44417847.67759155</v>
       </c>
       <c r="R2" s="33" t="n">
-        <v>256889200.5730659</v>
+        <v>74682690.25489371</v>
       </c>
       <c r="S2" t="n">
-        <v>2588178000</v>
+        <v>1469724285.252497</v>
       </c>
       <c r="T2" t="n">
-        <v>1071360000</v>
+        <v>1000190078.980994</v>
       </c>
       <c r="U2" t="n">
-        <v>853593000</v>
+        <v>370333223.4584908</v>
       </c>
       <c r="V2" t="n">
-        <v>1396270000</v>
+        <v>776913669.4556279</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>3541313855.749799</v>
       </c>
       <c r="Y2" t="n">
-        <v>882886000</v>
+        <v>518346191.4428254</v>
       </c>
       <c r="Z2" s="32" t="n">
         <v>720278843.2566812</v>
       </c>
       <c r="AA2" s="35" t="n">
-        <v>132385849.0988192</v>
+        <v>3809339.962709758</v>
       </c>
       <c r="AB2" s="33" t="n">
-        <v>103389307.6444997</v>
+        <v>656518978.2473586</v>
       </c>
       <c r="AC2" t="n">
-        <v>5267361000</v>
+        <v>3181653942.530735</v>
       </c>
       <c r="AD2" t="n">
-        <v>14484857000</v>
+        <v>5048971467.413126</v>
       </c>
       <c r="AE2" t="n">
         <v>3263513000</v>
       </c>
       <c r="AF2" t="n">
-        <v>3962981000</v>
+        <v>2667210175.130809</v>
       </c>
       <c r="AG2" t="n">
-        <v>1663571000</v>
+        <v>2339862974.701077</v>
       </c>
       <c r="AH2" t="n">
         <v>2100033000</v>
@@ -3777,25 +3777,25 @@
         <v>21081229000</v>
       </c>
       <c r="AK2" t="n">
-        <v>1726721000</v>
+        <v>944538223.3443481</v>
       </c>
       <c r="AL2" t="n">
-        <v>27295401000</v>
+        <v>11919631376.61383</v>
       </c>
       <c r="AM2" t="n">
-        <v>22285794000</v>
+        <v>63953903000</v>
       </c>
       <c r="AN2" t="n">
-        <v>5290128000</v>
+        <v>3026037464.268366</v>
       </c>
       <c r="AO2" t="n">
-        <v>18282719000</v>
+        <v>11787515271.87352</v>
       </c>
       <c r="AP2" t="n">
-        <v>1176402000</v>
+        <v>637098599.4606924</v>
       </c>
       <c r="AQ2" t="n">
-        <v>443881000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11639892.14522214</v>
+        <v>6959268.880132258</v>
       </c>
       <c r="C2" s="32" t="n">
         <v>0</v>
@@ -3681,91 +3681,91 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>34419941.55823046</v>
+        <v>20579024.71548999</v>
       </c>
       <c r="F2" t="n">
-        <v>464440.6003778941</v>
+        <v>277680.1517191494</v>
       </c>
       <c r="G2" t="n">
-        <v>320321232.8671938</v>
+        <v>191513938.421954</v>
       </c>
       <c r="H2" t="n">
-        <v>76592591.92933199</v>
+        <v>45793245.74594643</v>
       </c>
       <c r="I2" t="n">
-        <v>41481203.39782736</v>
+        <v>24800818.11028044</v>
       </c>
       <c r="J2" t="n">
-        <v>343560107.8819572</v>
+        <v>205408017.308751</v>
       </c>
       <c r="K2" t="n">
         <v>52424000</v>
       </c>
       <c r="L2" s="32" t="n">
-        <v>364487207.7494164</v>
+        <v>217919930.0517578</v>
       </c>
       <c r="M2" s="33" t="n">
-        <v>36065938.29739357</v>
+        <v>21563134.68324075</v>
       </c>
       <c r="N2" t="n">
-        <v>253736974.9118083</v>
+        <v>151704484.1319658</v>
       </c>
       <c r="O2" s="32" t="n">
-        <v>22047693.16405319</v>
+        <v>13181894.04171423</v>
       </c>
       <c r="P2" s="33" t="n">
-        <v>110715740.7032104</v>
+        <v>66194823.73235855</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>44417847.67759155</v>
+        <v>26556581.5566428</v>
       </c>
       <c r="R2" s="33" t="n">
-        <v>74682690.25489371</v>
+        <v>44651352.06504264</v>
       </c>
       <c r="S2" t="n">
-        <v>1469724285.252497</v>
+        <v>878720039.0796341</v>
       </c>
       <c r="T2" t="n">
-        <v>1000190078.980994</v>
+        <v>597994517.820905</v>
       </c>
       <c r="U2" t="n">
-        <v>370333223.4584908</v>
+        <v>221415151.0288375</v>
       </c>
       <c r="V2" t="n">
-        <v>776913669.4556279</v>
+        <v>464501823.1213795</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>3541313855.749799</v>
+        <v>2117283820.470521</v>
       </c>
       <c r="Y2" t="n">
-        <v>518346191.4428254</v>
+        <v>309909273.5772328</v>
       </c>
       <c r="Z2" s="32" t="n">
-        <v>720278843.2566812</v>
+        <v>708305010.8788657</v>
       </c>
       <c r="AA2" s="35" t="n">
-        <v>3809339.962709758</v>
+        <v>150281750.3972619</v>
       </c>
       <c r="AB2" s="33" t="n">
-        <v>656518978.2473586</v>
+        <v>645605082.5082508</v>
       </c>
       <c r="AC2" t="n">
-        <v>3181653942.530735</v>
+        <v>1902250037.487927</v>
       </c>
       <c r="AD2" t="n">
-        <v>5048971467.413126</v>
+        <v>3018683469.869324</v>
       </c>
       <c r="AE2" t="n">
         <v>3263513000</v>
       </c>
       <c r="AF2" t="n">
-        <v>2667210175.130809</v>
+        <v>1594673948.605191</v>
       </c>
       <c r="AG2" t="n">
-        <v>2339862974.701077</v>
+        <v>1398959318.561635</v>
       </c>
       <c r="AH2" t="n">
         <v>2100033000</v>
@@ -3777,22 +3777,22 @@
         <v>21081229000</v>
       </c>
       <c r="AK2" t="n">
-        <v>944538223.3443481</v>
+        <v>564721337.7757877</v>
       </c>
       <c r="AL2" t="n">
-        <v>11919631376.61383</v>
+        <v>7126519616.074462</v>
       </c>
       <c r="AM2" t="n">
         <v>63953903000</v>
       </c>
       <c r="AN2" t="n">
-        <v>3026037464.268366</v>
+        <v>5290128000</v>
       </c>
       <c r="AO2" t="n">
-        <v>11787515271.87352</v>
+        <v>18282719000</v>
       </c>
       <c r="AP2" t="n">
-        <v>637098599.4606924</v>
+        <v>380909066.9815674</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>

--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="9765" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -1007,7 +1007,7 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col width="77.5" customWidth="1" min="2" max="2"/>
   </cols>
@@ -1016,6 +1016,11 @@
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>BECbIC BAU Employee Compensation by ISIC Code</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Connecticut</t>
         </is>
       </c>
       <c r="C1" s="36" t="n">
@@ -1188,19 +1193,19 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1796875" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col width="27.5" customWidth="1" style="6" min="1" max="1"/>
     <col width="2.5" customWidth="1" style="6" min="2" max="2"/>
-    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="3" max="24"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="3" max="24"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="25" max="25"/>
-    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="26" max="31"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="26" max="31"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="32" max="34"/>
-    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="35" max="35"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="35" max="35"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="36" max="36"/>
-    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="37" max="38"/>
-    <col width="9.1796875" customWidth="1" style="6" min="39" max="42"/>
-    <col width="9.1796875" customWidth="1" style="6" min="43" max="16384"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="37" max="38"/>
+    <col width="9.1640625" customWidth="1" style="6" min="39" max="42"/>
+    <col width="9.1640625" customWidth="1" style="6" min="43" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -2034,11 +2039,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col width="27.5" customWidth="1" min="1" max="1"/>
     <col width="2.5" customWidth="1" min="2" max="2"/>
-    <col width="14.1796875" customWidth="1" min="3" max="14"/>
+    <col width="14.1640625" customWidth="1" min="3" max="14"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -3442,10 +3447,10 @@
       <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="24.81640625" customWidth="1" min="1" max="1"/>
-    <col width="10.1796875" customWidth="1" min="2" max="39"/>
+    <col width="24.83203125" customWidth="1" min="1" max="1"/>
+    <col width="10.1640625" customWidth="1" min="2" max="39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="4">
@@ -3672,7 +3677,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6959268.880132258</v>
+        <v>16394634.18281236</v>
       </c>
       <c r="C2" s="32" t="n">
         <v>0</v>
@@ -3681,67 +3686,67 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>20579024.71548999</v>
+        <v>48480032.58110937</v>
       </c>
       <c r="F2" t="n">
-        <v>277680.1517191494</v>
+        <v>654158.4447555891</v>
       </c>
       <c r="G2" t="n">
-        <v>191513938.421954</v>
+        <v>451168221.1764057</v>
       </c>
       <c r="H2" t="n">
-        <v>45793245.74594643</v>
+        <v>107879653.018113</v>
       </c>
       <c r="I2" t="n">
-        <v>24800818.11028044</v>
+        <v>58425726.51752293</v>
       </c>
       <c r="J2" t="n">
-        <v>205408017.308751</v>
+        <v>483899869.36814</v>
       </c>
       <c r="K2" t="n">
         <v>52424000</v>
       </c>
       <c r="L2" s="32" t="n">
-        <v>217919930.0517578</v>
+        <v>513375412.8314018</v>
       </c>
       <c r="M2" s="33" t="n">
-        <v>21563134.68324075</v>
+        <v>50798397.22469913</v>
       </c>
       <c r="N2" t="n">
-        <v>151704484.1319658</v>
+        <v>357385174.2294766</v>
       </c>
       <c r="O2" s="32" t="n">
-        <v>13181894.04171423</v>
+        <v>31053884.30492594</v>
       </c>
       <c r="P2" s="33" t="n">
-        <v>66194823.73235855</v>
+        <v>155941656.8866843</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>26556581.5566428</v>
+        <v>62561951.1569879</v>
       </c>
       <c r="R2" s="33" t="n">
-        <v>44651352.06504264</v>
+        <v>105189581.7625637</v>
       </c>
       <c r="S2" t="n">
-        <v>878720039.0796341</v>
+        <v>2070087222.94739</v>
       </c>
       <c r="T2" t="n">
-        <v>597994517.820905</v>
+        <v>1408754501.638782</v>
       </c>
       <c r="U2" t="n">
-        <v>221415151.0288375</v>
+        <v>521609448.6610715</v>
       </c>
       <c r="V2" t="n">
-        <v>464501823.1213795</v>
+        <v>1094272631.00369</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>2117283820.470521</v>
+        <v>4987893742.243489</v>
       </c>
       <c r="Y2" t="n">
-        <v>309909273.5772328</v>
+        <v>730083757.0258224</v>
       </c>
       <c r="Z2" s="32" t="n">
         <v>708305010.8788657</v>
@@ -3753,19 +3758,19 @@
         <v>645605082.5082508</v>
       </c>
       <c r="AC2" t="n">
-        <v>1902250037.487927</v>
+        <v>4481317509.931153</v>
       </c>
       <c r="AD2" t="n">
-        <v>3018683469.869324</v>
+        <v>7111409553.882575</v>
       </c>
       <c r="AE2" t="n">
         <v>3263513000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1594673948.605191</v>
+        <v>3756730265.571542</v>
       </c>
       <c r="AG2" t="n">
-        <v>1398959318.561635</v>
+        <v>3295666061.981295</v>
       </c>
       <c r="AH2" t="n">
         <v>2100033000</v>
@@ -3777,13 +3782,13 @@
         <v>21081229000</v>
       </c>
       <c r="AK2" t="n">
-        <v>564721337.7757877</v>
+        <v>1330369598.80856</v>
       </c>
       <c r="AL2" t="n">
-        <v>7126519616.074462</v>
+        <v>16788643191.48949</v>
       </c>
       <c r="AM2" t="n">
-        <v>63953903000</v>
+        <v>22285794000</v>
       </c>
       <c r="AN2" t="n">
         <v>5290128000</v>
@@ -3792,7 +3797,7 @@
         <v>18282719000</v>
       </c>
       <c r="AP2" t="n">
-        <v>380909066.9815674</v>
+        <v>897344953.5636401</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>
